--- a/docs/BDP305x_TestCases_template.xlsx
+++ b/docs/BDP305x_TestCases_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fx\Blockchain\4. CourseWare\5. Capstone\Edited\Edited\Project\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dapp\funix-pricing-chain\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC46D538-B649-4898-B40D-79052008B01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15480" windowHeight="8070" tabRatio="821"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -23,17 +24,27 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Participant!$A$8:$I$15</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -167,10 +178,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;List all test cases or conditions that must be done before performing this case&gt;
-</t>
-  </si>
-  <si>
     <t>&lt;Test case 2&gt;</t>
   </si>
   <si>
@@ -210,158 +217,297 @@
     <t>Actual Output</t>
   </si>
   <si>
-    <t>&lt;Describe actual result of the test&gt;</t>
-  </si>
-  <si>
     <t>Req ID</t>
   </si>
   <si>
     <t>&lt;ID of the requirement which are tested in this sheet&gt;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;Brief description of this case: what is tested?&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ex: Test viewing "Company" form.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Describe steps to perform this case&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ex:
-1. Login the system with Manager role.
-2. Click "Company" tab in the left menu.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;Describe results which meet customer's requirement&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ex:
-The "Company" view form is displayed with the following information:
-- Company name
-- Company address
-- Phone
-- Fax</t>
-    </r>
-  </si>
-  <si>
     <t>Template</t>
   </si>
   <si>
     <t>Project</t>
   </si>
   <si>
+    <t>Admin-1.1</t>
+  </si>
+  <si>
+    <t>Admin-2.1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Participant Functions</t>
+  </si>
+  <si>
+    <t>Update Participant Info</t>
+  </si>
+  <si>
+    <t>Participant-1.1</t>
+  </si>
+  <si>
+    <t>&lt;Function name&gt;</t>
+  </si>
+  <si>
+    <t>Update Participant Fullname and Email</t>
+  </si>
+  <si>
+    <t>FunixPricingChain</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant </t>
+  </si>
+  <si>
+    <t>create new pricing session</t>
+  </si>
+  <si>
+    <t>required product name and description, images are optional</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>sign up</t>
+  </si>
+  <si>
+    <t>have not registered before</t>
+  </si>
+  <si>
+    <t>update user detail</t>
+  </si>
+  <si>
+    <t>change user detail(name, email)</t>
+  </si>
+  <si>
+    <t>registered only</t>
+  </si>
+  <si>
+    <t>get sessions</t>
+  </si>
+  <si>
+    <t>Admin, Participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin, Participant </t>
+  </si>
+  <si>
+    <t>get available sessions</t>
+  </si>
+  <si>
+    <t>connected and registered</t>
+  </si>
+  <si>
+    <t>propose</t>
+  </si>
+  <si>
+    <t>propose price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connected and registered </t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>close session</t>
+  </si>
+  <si>
+    <t>close session change state to "CLOSING"</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>after closing session</t>
+  </si>
+  <si>
+    <t>set final price, update participant deviation and # joined session</t>
+  </si>
+  <si>
+    <t>session is in "OPENED" state</t>
+  </si>
+  <si>
+    <t>session is in "CLOSING" state</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>get all users detail</t>
+  </si>
+  <si>
+    <t>get all users information</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>update session detail</t>
+  </si>
+  <si>
+    <t>change session detail (name, description, images)</t>
+  </si>
+  <si>
     <t>&lt;List environment requires in this system
-1. Private Ethereum network
+1. Localhost
 2. Web Browser
 3. Metamask
-4. Truffle develop
-...
+4. hardhat develop
 &gt;</t>
   </si>
   <si>
-    <t>A Sample Function</t>
-  </si>
-  <si>
-    <t>Sample case</t>
-  </si>
-  <si>
-    <t>Admin-1.1</t>
-  </si>
-  <si>
-    <t>&lt;Test case 1&gt;</t>
-  </si>
-  <si>
-    <t>Admin-2.1</t>
-  </si>
-  <si>
-    <t>Admin-2.2</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Participant Functions</t>
-  </si>
-  <si>
-    <t>Update Participant Info</t>
-  </si>
-  <si>
-    <t>Participant-1.1</t>
-  </si>
-  <si>
-    <t>&lt;Function name&gt;</t>
-  </si>
-  <si>
-    <t>Update Participant Fullname and Email</t>
-  </si>
-  <si>
-    <t>FunixPricingChain</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>&lt;function name 1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;function name 2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;function name 3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;function name 4&gt;</t>
-  </si>
-  <si>
-    <t>Admin Functions</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participant </t>
-  </si>
-  <si>
-    <t>&lt;short descriptions of function&gt;</t>
-  </si>
-  <si>
-    <t>&lt;pre-condition before accessing the function&gt;</t>
-  </si>
-  <si>
-    <t>Initiate a new Pricing Session</t>
+    <t>Create new session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create new session </t>
+  </si>
+  <si>
+    <t>1. Connect to the Dapp with metamask with Admin address 2. Click "Create New Session" button on Navbar  
+3. Fill in product name, description, images (optional)</t>
+  </si>
+  <si>
+    <t>product name and description must be filled</t>
+  </si>
+  <si>
+    <t>new session is created and displayed on sessions page</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Get sessions</t>
+  </si>
+  <si>
+    <t>A new session will be added to the sessions list then redirect to the sessions page</t>
+  </si>
+  <si>
+    <t>1. Conenct to the Dapp with metamask</t>
+  </si>
+  <si>
+    <t>All sessions should be displayed on sessions page</t>
+  </si>
+  <si>
+    <t>All sessions are dispayed</t>
+  </si>
+  <si>
+    <t>Admin-3.1</t>
+  </si>
+  <si>
+    <t>get all users</t>
+  </si>
+  <si>
+    <t>All users information should be displayed on accounts page</t>
+  </si>
+  <si>
+    <t>All users are dispayed</t>
+  </si>
+  <si>
+    <t>Get users list</t>
+  </si>
+  <si>
+    <t>Admin-4.1</t>
+  </si>
+  <si>
+    <t>Change session detail</t>
+  </si>
+  <si>
+    <t>1. Connect to Dapp with Metamask with Admin address  2. Navigate to "Accounts" pages by clicking on Accounts button on navbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New detail about the session should be updated </t>
+  </si>
+  <si>
+    <t>Session must in "OPENED" state</t>
+  </si>
+  <si>
+    <t>Detail are updated</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Close session</t>
+  </si>
+  <si>
+    <t>change the state of the session to "CLOSING"</t>
+  </si>
+  <si>
+    <t>1. Connect to Dapp with Metamask with Admin address
+2. Choose a session to change the information 
+3. Click "Update Session Detail" button and then fill in the name, description, images(if available) then confirm the transaction</t>
+  </si>
+  <si>
+    <t>1. Connect to Dapp with Metamask with Admin address
+2. Choose a session to close
+3. Click "Close" button then confirm the transaction</t>
+  </si>
+  <si>
+    <t>State of the session should change to CLOSING and "Set final price" is displayed</t>
+  </si>
+  <si>
+    <t>State is changed to "CLOSING" and "Set final price" section is displayed</t>
+  </si>
+  <si>
+    <t>Admin-5.1</t>
+  </si>
+  <si>
+    <t>After closing session</t>
+  </si>
+  <si>
+    <t>Set final price</t>
+  </si>
+  <si>
+    <t>1. Connect to Dapp with Metamask with Admin address
+2. Choose a session to set final price
+3. Fill in the final price and click submit button then confirm the transaction</t>
+  </si>
+  <si>
+    <t>Final price of the session is stored and state of the session changes to "CLOSED" and deviation, # of joined sessions of participants who joined the session should be updated</t>
+  </si>
+  <si>
+    <t>Session must in "CLOSING" state</t>
+  </si>
+  <si>
+    <t>State is changed to "CLOSED" and final price of the session is stored and deviation as well as # of joined sessions of participants who joined are updated</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Admin-0.1</t>
+  </si>
+  <si>
+    <t>1. Connect to the Dapp with metamask
+2. Redirected to the register page (automatically)
+3. fill in the required information</t>
+  </si>
+  <si>
+    <t>Admin is registered</t>
+  </si>
+  <si>
+    <t>Have not registered before</t>
+  </si>
+  <si>
+    <t>Connected to Dapp with admin address via metamask</t>
+  </si>
+  <si>
+    <t>Admin-6.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -852,7 +998,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1167,15 +1313,21 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2 23" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal_Functional Test Case v1.0" xfId="4"/>
-    <cellStyle name="Normal_Sheet1" xfId="5"/>
-    <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2 23" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Functional Test Case v1.0" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1537,22 +1689,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.90625" style="75" customWidth="1"/>
-    <col min="2" max="8" width="8.26953125" style="75" customWidth="1"/>
-    <col min="9" max="10" width="14.36328125" style="75" customWidth="1"/>
-    <col min="11" max="13" width="8.26953125" style="75" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="75" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" style="75" customWidth="1"/>
-    <col min="16" max="16" width="4.36328125" style="75" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="75" customWidth="1"/>
+    <col min="2" max="8" width="8.21875" style="75" customWidth="1"/>
+    <col min="9" max="10" width="14.33203125" style="75" customWidth="1"/>
+    <col min="11" max="13" width="8.21875" style="75" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="75" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" style="75" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" style="75" customWidth="1"/>
     <col min="17" max="16384" width="9" style="75"/>
   </cols>
   <sheetData>
@@ -1588,7 +1740,7 @@
       <c r="N3" s="81"/>
       <c r="O3" s="83"/>
     </row>
-    <row r="4" spans="2:15" ht="17.5">
+    <row r="4" spans="2:15" ht="18">
       <c r="B4" s="80"/>
       <c r="C4" s="81"/>
       <c r="D4" s="84"/>
@@ -1604,7 +1756,7 @@
       <c r="N4" s="81"/>
       <c r="O4" s="83"/>
     </row>
-    <row r="5" spans="2:15" ht="17.5">
+    <row r="5" spans="2:15" ht="18">
       <c r="B5" s="80"/>
       <c r="C5" s="81"/>
       <c r="D5" s="84"/>
@@ -1668,7 +1820,7 @@
       <c r="N8" s="81"/>
       <c r="O8" s="83"/>
     </row>
-    <row r="9" spans="2:15" ht="22.5">
+    <row r="9" spans="2:15" ht="22.8">
       <c r="B9" s="80"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
@@ -1684,9 +1836,9 @@
       <c r="N9" s="81"/>
       <c r="O9" s="83"/>
     </row>
-    <row r="10" spans="2:15" ht="38.5" customHeight="1">
+    <row r="10" spans="2:15" ht="38.549999999999997" customHeight="1">
       <c r="B10" s="104" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="105"/>
       <c r="D10" s="105"/>
@@ -1702,7 +1854,7 @@
       <c r="N10" s="105"/>
       <c r="O10" s="106"/>
     </row>
-    <row r="11" spans="2:15" ht="37" customHeight="1">
+    <row r="11" spans="2:15" ht="37.049999999999997" customHeight="1">
       <c r="B11" s="104" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1872,7 @@
       <c r="N11" s="105"/>
       <c r="O11" s="106"/>
     </row>
-    <row r="12" spans="2:15" ht="29.5">
+    <row r="12" spans="2:15" ht="30">
       <c r="B12" s="100"/>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
@@ -1768,18 +1920,18 @@
       <c r="N14" s="81"/>
       <c r="O14" s="83"/>
     </row>
-    <row r="15" spans="2:15" ht="13">
+    <row r="15" spans="2:15">
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="107" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G15" s="108"/>
       <c r="H15" s="108"/>
       <c r="I15" s="109" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J15" s="109"/>
       <c r="K15" s="81"/>
@@ -1788,7 +1940,7 @@
       <c r="N15" s="81"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="2:15" ht="13">
+    <row r="16" spans="2:15">
       <c r="B16" s="80"/>
       <c r="C16" s="81"/>
       <c r="D16" s="87"/>
@@ -1854,7 +2006,7 @@
       <c r="N19" s="81"/>
       <c r="O19" s="83"/>
     </row>
-    <row r="20" spans="2:15" ht="13">
+    <row r="20" spans="2:15">
       <c r="B20" s="80"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
@@ -1902,7 +2054,7 @@
       <c r="N22" s="81"/>
       <c r="O22" s="83"/>
     </row>
-    <row r="23" spans="2:15" ht="13">
+    <row r="23" spans="2:15">
       <c r="B23" s="80"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -1989,7 +2141,7 @@
       <c r="I29" s="81"/>
       <c r="J29" s="81"/>
     </row>
-    <row r="30" spans="2:15" ht="13">
+    <row r="30" spans="2:15">
       <c r="B30" s="81"/>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
@@ -2033,27 +2185,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="49.6328125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="40" customWidth="1"/>
     <col min="7" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25">
+    <row r="1" spans="1:6" ht="24.6">
       <c r="A1" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="113" t="s">
         <v>4</v>
@@ -2068,7 +2220,7 @@
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
     </row>
-    <row r="3" spans="1:6" ht="13">
+    <row r="3" spans="1:6">
       <c r="B3" s="116" t="s">
         <v>1</v>
       </c>
@@ -2083,12 +2235,12 @@
       </c>
       <c r="C4" s="114"/>
       <c r="D4" s="115" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="115"/>
     </row>
-    <row r="5" spans="1:6" ht="13">
+    <row r="5" spans="1:6">
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -2124,16 +2276,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2141,78 +2293,134 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="53">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="53">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="53">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="53"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="53"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="53"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="53"/>
@@ -2261,29 +2469,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="20"/>
-    <col min="9" max="9" width="17.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="21" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="13">
+    <row r="1" spans="1:11" s="11" customFormat="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2300,7 +2508,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C2" s="119"/>
       <c r="D2" s="119"/>
@@ -2319,7 +2527,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="C3" s="119"/>
       <c r="D3" s="119"/>
@@ -2335,11 +2543,9 @@
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="119" t="s">
-        <v>14</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B4" s="119"/>
       <c r="C4" s="119"/>
       <c r="D4" s="119"/>
       <c r="E4" s="119"/>
@@ -2374,13 +2580,13 @@
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
       <c r="K5" s="11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="55">
         <f>COUNTIF(G10:G995,"Pass")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" s="55">
         <f>COUNTIF(G10:G995,"Fail")</f>
@@ -2388,7 +2594,7 @@
       </c>
       <c r="C6" s="55">
         <f>E6-D6-B6-A6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="55">
         <f>COUNTIF(G$10:G$995,"N/A")</f>
@@ -2396,7 +2602,7 @@
       </c>
       <c r="E6" s="118">
         <f>COUNTA(A10:A995)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="118"/>
       <c r="G6" s="118"/>
@@ -2430,7 +2636,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="99" t="s">
         <v>24</v>
@@ -2444,118 +2650,287 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:11" s="19" customFormat="1" ht="121" customHeight="1">
+    <row r="10" spans="1:11" s="19" customFormat="1" ht="121.05" customHeight="1">
       <c r="A10" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+        <v>125</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="125">
+        <v>44810</v>
+      </c>
       <c r="I10" s="60"/>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="79.2">
       <c r="A12" s="57" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+        <v>89</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="125">
+        <v>44810</v>
+      </c>
       <c r="I12" s="60"/>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="26.4">
       <c r="A14" s="57" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+        <v>68</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>97</v>
+      </c>
       <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="F14" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="125">
+        <v>44810</v>
+      </c>
       <c r="I14" s="60"/>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="60"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="66">
+      <c r="A16" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="125">
+        <v>44810</v>
+      </c>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="1:9" ht="26.4">
+      <c r="A17" s="126"/>
+      <c r="B17" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+    </row>
+    <row r="18" spans="1:9" ht="132">
+      <c r="A18" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="125">
+        <v>44810</v>
+      </c>
+      <c r="I18" s="60"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="126"/>
+      <c r="B19" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+    </row>
+    <row r="20" spans="1:9" ht="79.2">
+      <c r="A20" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="125">
+        <v>44810</v>
+      </c>
+      <c r="I20" s="60"/>
+    </row>
+    <row r="21" spans="1:9" ht="26.4">
+      <c r="A21" s="126"/>
+      <c r="B21" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+    </row>
+    <row r="22" spans="1:9" ht="118.8">
+      <c r="A22" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="125">
+        <v>44810</v>
+      </c>
+      <c r="I22" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2567,11 +2942,11 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:G9 G16:G142 G1:G4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:G9 G1:G4 G23:G142" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$K$2:$K$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G10:G15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G10:G22" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$K$2:$K$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -2586,29 +2961,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="20"/>
-    <col min="9" max="9" width="17.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="13">
+    <row r="1" spans="1:12" s="20" customFormat="1">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2625,7 +3000,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C2" s="119"/>
       <c r="D2" s="119"/>
@@ -2639,7 +3014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="20" customFormat="1" ht="26">
+    <row r="3" spans="1:12" s="20" customFormat="1" ht="26.4">
       <c r="A3" s="98" t="s">
         <v>13</v>
       </c>
@@ -2660,10 +3035,10 @@
     </row>
     <row r="4" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="119"/>
       <c r="D4" s="119"/>
@@ -2699,7 +3074,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -2755,7 +3130,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="99" t="s">
         <v>24</v>
@@ -2771,7 +3146,7 @@
     <row r="9" spans="1:12" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="93"/>
       <c r="B9" s="93" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
@@ -2782,12 +3157,12 @@
       <c r="I9" s="93"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:12" s="25" customFormat="1" ht="121" customHeight="1">
+    <row r="10" spans="1:12" s="25" customFormat="1" ht="121.05" customHeight="1">
       <c r="A10" s="57" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
@@ -2801,7 +3176,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="57"/>
       <c r="B11" s="57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="61"/>
@@ -2815,7 +3190,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="57"/>
       <c r="B12" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="61"/>
@@ -2829,7 +3204,7 @@
     <row r="13" spans="1:12" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="93"/>
       <c r="B13" s="93" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C13" s="93"/>
       <c r="D13" s="93"/>
@@ -2843,7 +3218,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="57"/>
       <c r="B14" s="57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
@@ -2857,7 +3232,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="57"/>
       <c r="B15" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
@@ -2868,7 +3243,7 @@
       <c r="I15" s="63"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="13">
+    <row r="16" spans="1:12">
       <c r="G16" s="64"/>
       <c r="J16" s="23"/>
       <c r="K16" s="20"/>
@@ -2888,11 +3263,11 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G16:G144 G7:G9 G1:G4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G16:G144 G7:G9 G1:G4" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G10:G15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G10:G15" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>$K$2:$K$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2907,26 +3282,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="33.08984375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="33.109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
       <c r="B1" s="122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="122"/>
       <c r="D1" s="122"/>
@@ -2950,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="123" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D3" s="123"/>
       <c r="E3" s="124" t="s">
@@ -2963,7 +3338,7 @@
     <row r="4" spans="1:8" ht="21.75" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="121"/>
       <c r="D4" s="121"/>
@@ -2982,7 +3357,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="1:8" ht="13">
+    <row r="6" spans="1:8">
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="29"/>
@@ -3001,13 +3376,13 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="13">
+    <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="68" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>12</v>
@@ -3022,7 +3397,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3036,7 +3411,7 @@
       </c>
       <c r="D9" s="70">
         <f>Admin!A6</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="70">
         <f>Admin!B6</f>
@@ -3044,7 +3419,7 @@
       </c>
       <c r="F9" s="70">
         <f>Admin!C6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="70">
         <f>Admin!D6</f>
@@ -3052,7 +3427,7 @@
       </c>
       <c r="H9" s="70">
         <f>Admin!E6</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3095,15 +3470,15 @@
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8" ht="13">
+    <row r="12" spans="1:8">
       <c r="A12" s="26"/>
       <c r="B12" s="72"/>
       <c r="C12" s="74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="73">
         <f>SUM(D7:D11)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12" s="73">
         <f>SUM(E7:E11)</f>
@@ -3111,7 +3486,7 @@
       </c>
       <c r="F12" s="73">
         <f>SUM(F7:F11)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="73">
         <f>SUM(G7:G11)</f>
@@ -3119,7 +3494,7 @@
       </c>
       <c r="H12" s="73">
         <f>SUM(H7:H11)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3132,36 +3507,36 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
     </row>
-    <row r="14" spans="1:8" ht="13">
+    <row r="14" spans="1:8">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="37">
         <f>(D12+E12)*100/(H12-G12)</f>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="13">
+    <row r="15" spans="1:8">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="37">
         <f>D12*100/(H12-G12)</f>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="15"/>
